--- a/writing/psp_proposal/proposal/PSP draft budget.xlsx
+++ b/writing/psp_proposal/proposal/PSP draft budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnyjardine/Dropbox/Salmon Restoration/salmon_culverts/writing/psp_proposal/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAFC03-138F-7748-8A31-897809A18258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4DBBC3-BE4D-5F49-BF55-A3FABE6B94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1780" windowWidth="30120" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="3400" windowWidth="30120" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BGT 1" sheetId="2" r:id="rId1"/>
@@ -540,17 +540,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1260,25 +1260,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>4.5</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>5018</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46">
         <f>C11*D11</f>
         <v>22581</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <f>SUM(D11*C11)</f>
         <v>22581</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <f t="shared" ref="H11:H12" si="0">SUM(F11:G11)</f>
         <v>45162</v>
       </c>
@@ -1366,10 +1366,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="34">
@@ -1597,7 +1597,9 @@
       <c r="B26" s="31"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13">
+        <v>2000</v>
+      </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -1612,7 +1614,7 @@
       <c r="G27" s="12"/>
       <c r="N27" s="29">
         <f>SUM(H35-H33)*0.26</f>
-        <v>103229.36</v>
+        <v>102969.36</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>0</v>
@@ -1626,14 +1628,14 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="13">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G28" s="13">
         <v>3000</v>
       </c>
       <c r="H28" s="7">
         <f>SUM(F28:G28)</f>
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="13">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -1758,15 +1760,15 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15">
         <f>SUM(F24:F34)</f>
-        <v>186886</v>
+        <v>187886</v>
       </c>
       <c r="G35" s="15">
         <f>SUM(G24:G34)</f>
-        <v>243834</v>
+        <v>246834</v>
       </c>
       <c r="H35" s="16">
         <f>SUM(H24:H34)</f>
-        <v>430720</v>
+        <v>429720</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>0</v>
@@ -1787,15 +1789,15 @@
       <c r="E36" s="13"/>
       <c r="F36" s="22">
         <f>SUM(F35*0.26)</f>
-        <v>48590</v>
+        <v>48850</v>
       </c>
       <c r="G36" s="22">
         <f>SUM(G35-G33)*0.26</f>
-        <v>59018</v>
+        <v>59798</v>
       </c>
       <c r="H36" s="16">
         <f>SUM(F36:G36)</f>
-        <v>107608</v>
+        <v>108648</v>
       </c>
       <c r="M36" s="7">
         <f>SUM(F34)</f>
@@ -1803,7 +1805,7 @@
       </c>
       <c r="O36" s="7">
         <f>SUM(G36)</f>
-        <v>59018</v>
+        <v>59798</v>
       </c>
       <c r="U36" s="29" t="s">
         <v>0</v>
@@ -1822,7 +1824,7 @@
       <c r="H37" s="24"/>
       <c r="M37" s="7">
         <f>SUM(F36)</f>
-        <v>48590</v>
+        <v>48850</v>
       </c>
       <c r="O37" s="7">
         <f>SUM(G34)</f>
@@ -1839,15 +1841,15 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22">
         <f>SUM(F35:F36)</f>
-        <v>235476</v>
+        <v>236736</v>
       </c>
       <c r="G38" s="22">
         <f>SUM(G35:G36)</f>
-        <v>302852</v>
+        <v>306632</v>
       </c>
       <c r="H38" s="41">
         <f>SUM(H35:H36)</f>
-        <v>538328</v>
+        <v>538368</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>0</v>
@@ -1858,11 +1860,11 @@
       <c r="G39" s="13"/>
       <c r="M39" s="7">
         <f>SUM(M36:M37)</f>
-        <v>51590</v>
+        <v>51850</v>
       </c>
       <c r="P39" s="7">
         <f>SUM(O35:O37)</f>
-        <v>78860</v>
+        <v>79640</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
